--- a/docs/traffic_resource.xlsx
+++ b/docs/traffic_resource.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">日子</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题</t>
   </si>
   <si>
     <t xml:space="preserve">关西机场到道顿崛（南海电铁）</t>
@@ -39,6 +42,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">单独购买 </t>
     </r>
@@ -47,6 +51,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">or </t>
     </r>
@@ -55,6 +60,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">西瓜卡</t>
     </r>
@@ -73,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">关西周游卡三日券</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关西周游卡是否能涵盖近铁以及京都的市内交通</t>
   </si>
   <si>
     <t xml:space="preserve">京都市内交通，包括往返金阁寺</t>
@@ -99,6 +108,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,14 +130,16 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +150,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,7 +202,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,8 +210,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -209,7 +231,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -273,18 +295,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,16 +320,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,10 +340,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,18 +359,21 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,9 +381,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -362,16 +392,17 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,10 +410,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,17 +442,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>

--- a/docs/traffic_resource.xlsx
+++ b/docs/traffic_resource.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve">日子</t>
   </si>
@@ -37,54 +37,25 @@
     <t xml:space="preserve">关西机场到道顿崛（南海电铁）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">单独购买 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">西瓜卡</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪市内交通，包括往返环球影城</t>
+    <t xml:space="preserve">西瓜卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大阪：市内交通</t>
   </si>
   <si>
     <t xml:space="preserve">大阪周游卡两日券</t>
   </si>
   <si>
-    <t xml:space="preserve">西瓜卡</t>
+    <t xml:space="preserve">大阪：往返环球影城</t>
   </si>
   <si>
     <t xml:space="preserve">大阪到奈良，奈良到京都（近铁）</t>
   </si>
   <si>
-    <t xml:space="preserve">关西周游卡三日券</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关西周游卡是否能涵盖近铁以及京都的市内交通</t>
-  </si>
-  <si>
     <t xml:space="preserve">京都市内交通，包括往返金阁寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">京都巴士</t>
   </si>
   <si>
     <t xml:space="preserve">京都到东京（新干线）</t>
@@ -139,7 +110,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,12 +121,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3333"/>
-        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,12 +175,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -231,7 +196,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -298,7 +263,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -342,7 +307,7 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -351,55 +316,54 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -409,52 +373,51 @@
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:B5"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
   </mergeCells>
